--- a/mediaexpert.xlsx
+++ b/mediaexpert.xlsx
@@ -622,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GR32"/>
+  <dimension ref="A1:KP32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="ER1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="FM23" sqref="FM23"/>
@@ -1639,6 +1639,516 @@
           <t>2021-03-14</t>
         </is>
       </c>
+      <c r="GS1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
+        </is>
+      </c>
+      <c r="GT1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-16</t>
+        </is>
+      </c>
+      <c r="GU1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-17</t>
+        </is>
+      </c>
+      <c r="GV1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-18</t>
+        </is>
+      </c>
+      <c r="GW1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-19</t>
+        </is>
+      </c>
+      <c r="GX1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-20</t>
+        </is>
+      </c>
+      <c r="GY1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-21</t>
+        </is>
+      </c>
+      <c r="GZ1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-22</t>
+        </is>
+      </c>
+      <c r="HA1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-23</t>
+        </is>
+      </c>
+      <c r="HB1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-24</t>
+        </is>
+      </c>
+      <c r="HC1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-25</t>
+        </is>
+      </c>
+      <c r="HD1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-26</t>
+        </is>
+      </c>
+      <c r="HE1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-27</t>
+        </is>
+      </c>
+      <c r="HF1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-28</t>
+        </is>
+      </c>
+      <c r="HG1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-29</t>
+        </is>
+      </c>
+      <c r="HH1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-30</t>
+        </is>
+      </c>
+      <c r="HI1" s="24" t="inlineStr">
+        <is>
+          <t>2021-03-31</t>
+        </is>
+      </c>
+      <c r="HJ1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-01</t>
+        </is>
+      </c>
+      <c r="HK1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-02</t>
+        </is>
+      </c>
+      <c r="HL1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-03</t>
+        </is>
+      </c>
+      <c r="HM1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-04</t>
+        </is>
+      </c>
+      <c r="HN1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-05</t>
+        </is>
+      </c>
+      <c r="HO1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="HP1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="HQ1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-08</t>
+        </is>
+      </c>
+      <c r="HR1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-09</t>
+        </is>
+      </c>
+      <c r="HS1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-10</t>
+        </is>
+      </c>
+      <c r="HT1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-11</t>
+        </is>
+      </c>
+      <c r="HU1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-12</t>
+        </is>
+      </c>
+      <c r="HV1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-13</t>
+        </is>
+      </c>
+      <c r="HW1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+      <c r="HX1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="HY1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+      <c r="HZ1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-17</t>
+        </is>
+      </c>
+      <c r="IA1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+      <c r="IB1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+      <c r="IC1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-28</t>
+        </is>
+      </c>
+      <c r="ID1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+      <c r="IE1" s="24" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+      <c r="IF1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-01</t>
+        </is>
+      </c>
+      <c r="IG1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-02</t>
+        </is>
+      </c>
+      <c r="IH1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="II1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-04</t>
+        </is>
+      </c>
+      <c r="IJ1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-05</t>
+        </is>
+      </c>
+      <c r="IK1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-06</t>
+        </is>
+      </c>
+      <c r="IL1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-07</t>
+        </is>
+      </c>
+      <c r="IM1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-08</t>
+        </is>
+      </c>
+      <c r="IN1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-09</t>
+        </is>
+      </c>
+      <c r="IO1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-10</t>
+        </is>
+      </c>
+      <c r="IP1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-11</t>
+        </is>
+      </c>
+      <c r="IQ1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-12</t>
+        </is>
+      </c>
+      <c r="IR1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-13</t>
+        </is>
+      </c>
+      <c r="IS1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
+      </c>
+      <c r="IT1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-15</t>
+        </is>
+      </c>
+      <c r="IU1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-16</t>
+        </is>
+      </c>
+      <c r="IV1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-17</t>
+        </is>
+      </c>
+      <c r="IW1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-18</t>
+        </is>
+      </c>
+      <c r="IX1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-19</t>
+        </is>
+      </c>
+      <c r="IY1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-20</t>
+        </is>
+      </c>
+      <c r="IZ1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-21</t>
+        </is>
+      </c>
+      <c r="JA1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-22</t>
+        </is>
+      </c>
+      <c r="JB1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-23</t>
+        </is>
+      </c>
+      <c r="JC1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-24</t>
+        </is>
+      </c>
+      <c r="JD1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-25</t>
+        </is>
+      </c>
+      <c r="JE1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-26</t>
+        </is>
+      </c>
+      <c r="JF1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-27</t>
+        </is>
+      </c>
+      <c r="JG1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-28</t>
+        </is>
+      </c>
+      <c r="JH1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-29</t>
+        </is>
+      </c>
+      <c r="JI1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-30</t>
+        </is>
+      </c>
+      <c r="JJ1" s="24" t="inlineStr">
+        <is>
+          <t>2021-05-31</t>
+        </is>
+      </c>
+      <c r="JK1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-01</t>
+        </is>
+      </c>
+      <c r="JL1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-02</t>
+        </is>
+      </c>
+      <c r="JM1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-03</t>
+        </is>
+      </c>
+      <c r="JN1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-04</t>
+        </is>
+      </c>
+      <c r="JO1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-05</t>
+        </is>
+      </c>
+      <c r="JP1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-06</t>
+        </is>
+      </c>
+      <c r="JQ1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
+      <c r="JR1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
+      <c r="JS1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-09</t>
+        </is>
+      </c>
+      <c r="JT1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-10</t>
+        </is>
+      </c>
+      <c r="JU1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-11</t>
+        </is>
+      </c>
+      <c r="JV1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-12</t>
+        </is>
+      </c>
+      <c r="JW1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-13</t>
+        </is>
+      </c>
+      <c r="JX1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-14</t>
+        </is>
+      </c>
+      <c r="JY1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
+      </c>
+      <c r="JZ1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-16</t>
+        </is>
+      </c>
+      <c r="KA1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="KB1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-18</t>
+        </is>
+      </c>
+      <c r="KC1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-19</t>
+        </is>
+      </c>
+      <c r="KD1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-20</t>
+        </is>
+      </c>
+      <c r="KE1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="KF1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="KG1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="KH1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-24</t>
+        </is>
+      </c>
+      <c r="KI1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+      <c r="KJ1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-26</t>
+        </is>
+      </c>
+      <c r="KK1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="KL1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="KM1" s="24" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="KN1" s="24" t="inlineStr">
+        <is>
+          <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="KO1" s="24" t="inlineStr">
+        <is>
+          <t>2021-07-02</t>
+        </is>
+      </c>
+      <c r="KP1" s="24" t="inlineStr">
+        <is>
+          <t>2021-07-03</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="15.4" customHeight="1" s="3">
       <c r="A2" s="25" t="inlineStr">
@@ -2579,6 +3089,221 @@
         </is>
       </c>
       <c r="GR2" s="29" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="GS2" s="29" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="GT2" s="29" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="GU2" s="29" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="GV2" s="29" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="GW2" s="29" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="GX2" s="29" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="GY2" s="29" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="GZ2" s="29" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="HA2" s="29" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="HB2" s="29" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="HC2" s="29" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="HD2" s="29" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="HE2" s="29" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="HF2" s="29" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="JD2" s="30" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JE2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JF2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JG2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JH2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JI2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JJ2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JK2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JL2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JM2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JN2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JO2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JP2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JQ2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JR2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JS2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JT2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JU2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JV2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JW2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JX2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JY2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="JZ2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="KA2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="KB2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="KC2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="KD2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="KE2" s="29" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="KF2" s="30" t="inlineStr">
         <is>
           <t>849</t>
         </is>
@@ -2781,6 +3506,49 @@
       <c r="GM3" s="30" t="inlineStr"/>
       <c r="GQ3" s="30" t="inlineStr"/>
       <c r="GR3" s="30" t="inlineStr"/>
+      <c r="GS3" s="30" t="inlineStr"/>
+      <c r="GT3" s="30" t="inlineStr"/>
+      <c r="GU3" s="30" t="inlineStr"/>
+      <c r="GV3" s="30" t="inlineStr"/>
+      <c r="GW3" s="30" t="inlineStr"/>
+      <c r="GX3" s="30" t="inlineStr"/>
+      <c r="GY3" s="30" t="inlineStr"/>
+      <c r="GZ3" s="30" t="inlineStr"/>
+      <c r="HA3" s="30" t="inlineStr"/>
+      <c r="HB3" s="30" t="inlineStr"/>
+      <c r="HC3" s="30" t="inlineStr"/>
+      <c r="HD3" s="30" t="inlineStr"/>
+      <c r="HE3" s="30" t="inlineStr"/>
+      <c r="HF3" s="30" t="inlineStr"/>
+      <c r="JD3" s="30" t="inlineStr"/>
+      <c r="JE3" s="30" t="inlineStr"/>
+      <c r="JF3" s="30" t="inlineStr"/>
+      <c r="JG3" s="30" t="inlineStr"/>
+      <c r="JH3" s="30" t="inlineStr"/>
+      <c r="JI3" s="30" t="inlineStr"/>
+      <c r="JJ3" s="30" t="inlineStr"/>
+      <c r="JK3" s="30" t="inlineStr"/>
+      <c r="JL3" s="30" t="inlineStr"/>
+      <c r="JM3" s="30" t="inlineStr"/>
+      <c r="JN3" s="30" t="inlineStr"/>
+      <c r="JO3" s="30" t="inlineStr"/>
+      <c r="JP3" s="30" t="inlineStr"/>
+      <c r="JQ3" s="30" t="inlineStr"/>
+      <c r="JR3" s="30" t="inlineStr"/>
+      <c r="JS3" s="30" t="inlineStr"/>
+      <c r="JT3" s="30" t="inlineStr"/>
+      <c r="JU3" s="30" t="inlineStr"/>
+      <c r="JV3" s="30" t="inlineStr"/>
+      <c r="JW3" s="30" t="inlineStr"/>
+      <c r="JX3" s="30" t="inlineStr"/>
+      <c r="JY3" s="30" t="inlineStr"/>
+      <c r="JZ3" s="30" t="inlineStr"/>
+      <c r="KA3" s="30" t="inlineStr"/>
+      <c r="KB3" s="30" t="inlineStr"/>
+      <c r="KC3" s="30" t="inlineStr"/>
+      <c r="KD3" s="30" t="inlineStr"/>
+      <c r="KE3" s="30" t="inlineStr"/>
+      <c r="KF3" s="30" t="inlineStr"/>
     </row>
     <row r="4" ht="15.4" customHeight="1" s="3">
       <c r="A4" s="31" t="inlineStr">
@@ -2795,8 +3563,8 @@
 </t>
         </is>
       </c>
-      <c r="C4" s="28" t="b">
-        <v>0</v>
+      <c r="C4" s="27" t="b">
+        <v>1</v>
       </c>
       <c r="D4" s="32" t="b">
         <v>0</v>
@@ -3723,6 +4491,221 @@
       <c r="GR4" s="28" t="inlineStr">
         <is>
           <t>459</t>
+        </is>
+      </c>
+      <c r="GS4" s="35" t="inlineStr">
+        <is>
+          <t>2799</t>
+        </is>
+      </c>
+      <c r="GT4" s="28" t="inlineStr">
+        <is>
+          <t>2799</t>
+        </is>
+      </c>
+      <c r="GU4" s="28" t="inlineStr">
+        <is>
+          <t>2799</t>
+        </is>
+      </c>
+      <c r="GV4" s="28" t="inlineStr">
+        <is>
+          <t>2799</t>
+        </is>
+      </c>
+      <c r="GW4" s="28" t="inlineStr">
+        <is>
+          <t>2799</t>
+        </is>
+      </c>
+      <c r="GX4" s="28" t="inlineStr">
+        <is>
+          <t>2799</t>
+        </is>
+      </c>
+      <c r="GY4" s="28" t="inlineStr">
+        <is>
+          <t>2799</t>
+        </is>
+      </c>
+      <c r="GZ4" s="28" t="inlineStr">
+        <is>
+          <t>2799</t>
+        </is>
+      </c>
+      <c r="HA4" s="35" t="inlineStr">
+        <is>
+          <t>10999</t>
+        </is>
+      </c>
+      <c r="HB4" s="33" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="HC4" s="28" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="HD4" s="28" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="HE4" s="35" t="inlineStr">
+        <is>
+          <t>2799</t>
+        </is>
+      </c>
+      <c r="HF4" s="33" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JD4" s="30" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JE4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JF4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JG4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JH4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JI4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JJ4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JK4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JL4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JM4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JN4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JO4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JP4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JQ4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JR4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JS4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JT4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JU4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JV4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JW4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JX4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JY4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="JZ4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="KA4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="KB4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="KC4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="KD4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="KE4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="KF4" s="29" t="inlineStr">
+        <is>
+          <t>2079</t>
         </is>
       </c>
     </row>
@@ -3923,6 +4906,49 @@
       <c r="GM5" s="30" t="inlineStr"/>
       <c r="GQ5" s="30" t="inlineStr"/>
       <c r="GR5" s="30" t="inlineStr"/>
+      <c r="GS5" s="30" t="inlineStr"/>
+      <c r="GT5" s="30" t="inlineStr"/>
+      <c r="GU5" s="30" t="inlineStr"/>
+      <c r="GV5" s="30" t="inlineStr"/>
+      <c r="GW5" s="30" t="inlineStr"/>
+      <c r="GX5" s="30" t="inlineStr"/>
+      <c r="GY5" s="30" t="inlineStr"/>
+      <c r="GZ5" s="30" t="inlineStr"/>
+      <c r="HA5" s="30" t="inlineStr"/>
+      <c r="HB5" s="30" t="inlineStr"/>
+      <c r="HC5" s="30" t="inlineStr"/>
+      <c r="HD5" s="30" t="inlineStr"/>
+      <c r="HE5" s="30" t="inlineStr"/>
+      <c r="HF5" s="30" t="inlineStr"/>
+      <c r="JD5" s="30" t="inlineStr"/>
+      <c r="JE5" s="30" t="inlineStr"/>
+      <c r="JF5" s="30" t="inlineStr"/>
+      <c r="JG5" s="30" t="inlineStr"/>
+      <c r="JH5" s="30" t="inlineStr"/>
+      <c r="JI5" s="30" t="inlineStr"/>
+      <c r="JJ5" s="30" t="inlineStr"/>
+      <c r="JK5" s="30" t="inlineStr"/>
+      <c r="JL5" s="30" t="inlineStr"/>
+      <c r="JM5" s="30" t="inlineStr"/>
+      <c r="JN5" s="30" t="inlineStr"/>
+      <c r="JO5" s="30" t="inlineStr"/>
+      <c r="JP5" s="30" t="inlineStr"/>
+      <c r="JQ5" s="30" t="inlineStr"/>
+      <c r="JR5" s="30" t="inlineStr"/>
+      <c r="JS5" s="30" t="inlineStr"/>
+      <c r="JT5" s="30" t="inlineStr"/>
+      <c r="JU5" s="30" t="inlineStr"/>
+      <c r="JV5" s="30" t="inlineStr"/>
+      <c r="JW5" s="30" t="inlineStr"/>
+      <c r="JX5" s="30" t="inlineStr"/>
+      <c r="JY5" s="30" t="inlineStr"/>
+      <c r="JZ5" s="30" t="inlineStr"/>
+      <c r="KA5" s="30" t="inlineStr"/>
+      <c r="KB5" s="30" t="inlineStr"/>
+      <c r="KC5" s="30" t="inlineStr"/>
+      <c r="KD5" s="30" t="inlineStr"/>
+      <c r="KE5" s="30" t="inlineStr"/>
+      <c r="KF5" s="30" t="inlineStr"/>
     </row>
     <row r="6" ht="15.4" customHeight="1" s="3">
       <c r="A6" s="25" t="inlineStr">
@@ -4867,6 +5893,221 @@
           <t>499</t>
         </is>
       </c>
+      <c r="GS6" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="GT6" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="GU6" s="30" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="GV6" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="GW6" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="GX6" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="GY6" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="GZ6" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="HA6" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="HB6" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="HC6" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="HD6" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="HE6" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="HF6" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="JD6" s="30" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="JE6" s="29" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="JF6" s="29" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="JG6" s="29" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="JH6" s="29" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="JI6" s="29" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="JJ6" s="29" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="JK6" s="29" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="JL6" s="29" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="JM6" s="29" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="JN6" s="29" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="JO6" s="29" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="JP6" s="29" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="JQ6" s="29" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="JR6" s="29" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="JS6" s="30" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="JT6" s="29" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="JU6" s="29" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="JV6" s="29" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="JW6" s="29" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="JX6" s="29" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="JY6" s="29" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="JZ6" s="29" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="KA6" s="29" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="KB6" s="29" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="KC6" s="29" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="KD6" s="29" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="KE6" s="29" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="KF6" s="34" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.4" customHeight="1" s="3">
       <c r="A7" s="25" t="inlineStr">
@@ -5807,6 +7048,221 @@
         </is>
       </c>
       <c r="GR7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="GS7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="GT7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="GU7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="GV7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="GW7" s="30" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="GX7" s="29" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="GY7" s="29" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="GZ7" s="34" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="HA7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="HB7" s="30" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="HC7" s="29" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="HD7" s="29" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="HE7" s="29" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="HF7" s="29" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="JD7" s="30" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JE7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JF7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JG7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JH7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JI7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JJ7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JK7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JL7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JM7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JN7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JO7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JP7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JQ7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JR7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JS7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JT7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JU7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JV7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JW7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JX7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JY7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="JZ7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="KA7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="KB7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="KC7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="KD7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="KE7" s="29" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="KF7" s="29" t="inlineStr">
         <is>
           <t>989</t>
         </is>
@@ -6009,6 +7465,49 @@
       <c r="GM8" s="30" t="inlineStr"/>
       <c r="GQ8" s="30" t="inlineStr"/>
       <c r="GR8" s="30" t="inlineStr"/>
+      <c r="GS8" s="30" t="inlineStr"/>
+      <c r="GT8" s="30" t="inlineStr"/>
+      <c r="GU8" s="30" t="inlineStr"/>
+      <c r="GV8" s="30" t="inlineStr"/>
+      <c r="GW8" s="30" t="inlineStr"/>
+      <c r="GX8" s="30" t="inlineStr"/>
+      <c r="GY8" s="30" t="inlineStr"/>
+      <c r="GZ8" s="30" t="inlineStr"/>
+      <c r="HA8" s="30" t="inlineStr"/>
+      <c r="HB8" s="30" t="inlineStr"/>
+      <c r="HC8" s="30" t="inlineStr"/>
+      <c r="HD8" s="30" t="inlineStr"/>
+      <c r="HE8" s="30" t="inlineStr"/>
+      <c r="HF8" s="30" t="inlineStr"/>
+      <c r="JD8" s="30" t="inlineStr"/>
+      <c r="JE8" s="30" t="inlineStr"/>
+      <c r="JF8" s="30" t="inlineStr"/>
+      <c r="JG8" s="30" t="inlineStr"/>
+      <c r="JH8" s="30" t="inlineStr"/>
+      <c r="JI8" s="30" t="inlineStr"/>
+      <c r="JJ8" s="30" t="inlineStr"/>
+      <c r="JK8" s="30" t="inlineStr"/>
+      <c r="JL8" s="30" t="inlineStr"/>
+      <c r="JM8" s="30" t="inlineStr"/>
+      <c r="JN8" s="30" t="inlineStr"/>
+      <c r="JO8" s="30" t="inlineStr"/>
+      <c r="JP8" s="30" t="inlineStr"/>
+      <c r="JQ8" s="30" t="inlineStr"/>
+      <c r="JR8" s="30" t="inlineStr"/>
+      <c r="JS8" s="30" t="inlineStr"/>
+      <c r="JT8" s="30" t="inlineStr"/>
+      <c r="JU8" s="30" t="inlineStr"/>
+      <c r="JV8" s="30" t="inlineStr"/>
+      <c r="JW8" s="30" t="inlineStr"/>
+      <c r="JX8" s="30" t="inlineStr"/>
+      <c r="JY8" s="30" t="inlineStr"/>
+      <c r="JZ8" s="30" t="inlineStr"/>
+      <c r="KA8" s="30" t="inlineStr"/>
+      <c r="KB8" s="30" t="inlineStr"/>
+      <c r="KC8" s="30" t="inlineStr"/>
+      <c r="KD8" s="30" t="inlineStr"/>
+      <c r="KE8" s="30" t="inlineStr"/>
+      <c r="KF8" s="30" t="inlineStr"/>
     </row>
     <row r="9" ht="15.4" customHeight="1" s="3">
       <c r="A9" s="25" t="inlineStr"/>
@@ -6207,6 +7706,49 @@
       <c r="GM9" s="30" t="inlineStr"/>
       <c r="GQ9" s="30" t="inlineStr"/>
       <c r="GR9" s="30" t="inlineStr"/>
+      <c r="GS9" s="30" t="inlineStr"/>
+      <c r="GT9" s="30" t="inlineStr"/>
+      <c r="GU9" s="30" t="inlineStr"/>
+      <c r="GV9" s="30" t="inlineStr"/>
+      <c r="GW9" s="30" t="inlineStr"/>
+      <c r="GX9" s="30" t="inlineStr"/>
+      <c r="GY9" s="30" t="inlineStr"/>
+      <c r="GZ9" s="30" t="inlineStr"/>
+      <c r="HA9" s="30" t="inlineStr"/>
+      <c r="HB9" s="30" t="inlineStr"/>
+      <c r="HC9" s="30" t="inlineStr"/>
+      <c r="HD9" s="30" t="inlineStr"/>
+      <c r="HE9" s="30" t="inlineStr"/>
+      <c r="HF9" s="30" t="inlineStr"/>
+      <c r="JD9" s="30" t="inlineStr"/>
+      <c r="JE9" s="30" t="inlineStr"/>
+      <c r="JF9" s="30" t="inlineStr"/>
+      <c r="JG9" s="30" t="inlineStr"/>
+      <c r="JH9" s="30" t="inlineStr"/>
+      <c r="JI9" s="30" t="inlineStr"/>
+      <c r="JJ9" s="30" t="inlineStr"/>
+      <c r="JK9" s="30" t="inlineStr"/>
+      <c r="JL9" s="30" t="inlineStr"/>
+      <c r="JM9" s="30" t="inlineStr"/>
+      <c r="JN9" s="30" t="inlineStr"/>
+      <c r="JO9" s="30" t="inlineStr"/>
+      <c r="JP9" s="30" t="inlineStr"/>
+      <c r="JQ9" s="30" t="inlineStr"/>
+      <c r="JR9" s="30" t="inlineStr"/>
+      <c r="JS9" s="30" t="inlineStr"/>
+      <c r="JT9" s="30" t="inlineStr"/>
+      <c r="JU9" s="30" t="inlineStr"/>
+      <c r="JV9" s="30" t="inlineStr"/>
+      <c r="JW9" s="30" t="inlineStr"/>
+      <c r="JX9" s="30" t="inlineStr"/>
+      <c r="JY9" s="30" t="inlineStr"/>
+      <c r="JZ9" s="30" t="inlineStr"/>
+      <c r="KA9" s="30" t="inlineStr"/>
+      <c r="KB9" s="30" t="inlineStr"/>
+      <c r="KC9" s="30" t="inlineStr"/>
+      <c r="KD9" s="30" t="inlineStr"/>
+      <c r="KE9" s="30" t="inlineStr"/>
+      <c r="KF9" s="30" t="inlineStr"/>
     </row>
     <row r="10" ht="15.4" customHeight="1" s="3">
       <c r="A10" s="26" t="inlineStr"/>
@@ -6405,6 +7947,49 @@
       <c r="GM10" s="30" t="inlineStr"/>
       <c r="GQ10" s="30" t="inlineStr"/>
       <c r="GR10" s="30" t="inlineStr"/>
+      <c r="GS10" s="30" t="inlineStr"/>
+      <c r="GT10" s="30" t="inlineStr"/>
+      <c r="GU10" s="30" t="inlineStr"/>
+      <c r="GV10" s="30" t="inlineStr"/>
+      <c r="GW10" s="30" t="inlineStr"/>
+      <c r="GX10" s="30" t="inlineStr"/>
+      <c r="GY10" s="30" t="inlineStr"/>
+      <c r="GZ10" s="30" t="inlineStr"/>
+      <c r="HA10" s="30" t="inlineStr"/>
+      <c r="HB10" s="30" t="inlineStr"/>
+      <c r="HC10" s="30" t="inlineStr"/>
+      <c r="HD10" s="30" t="inlineStr"/>
+      <c r="HE10" s="30" t="inlineStr"/>
+      <c r="HF10" s="30" t="inlineStr"/>
+      <c r="JD10" s="30" t="inlineStr"/>
+      <c r="JE10" s="30" t="inlineStr"/>
+      <c r="JF10" s="30" t="inlineStr"/>
+      <c r="JG10" s="30" t="inlineStr"/>
+      <c r="JH10" s="30" t="inlineStr"/>
+      <c r="JI10" s="30" t="inlineStr"/>
+      <c r="JJ10" s="30" t="inlineStr"/>
+      <c r="JK10" s="30" t="inlineStr"/>
+      <c r="JL10" s="30" t="inlineStr"/>
+      <c r="JM10" s="30" t="inlineStr"/>
+      <c r="JN10" s="30" t="inlineStr"/>
+      <c r="JO10" s="30" t="inlineStr"/>
+      <c r="JP10" s="30" t="inlineStr"/>
+      <c r="JQ10" s="30" t="inlineStr"/>
+      <c r="JR10" s="30" t="inlineStr"/>
+      <c r="JS10" s="30" t="inlineStr"/>
+      <c r="JT10" s="30" t="inlineStr"/>
+      <c r="JU10" s="30" t="inlineStr"/>
+      <c r="JV10" s="30" t="inlineStr"/>
+      <c r="JW10" s="30" t="inlineStr"/>
+      <c r="JX10" s="30" t="inlineStr"/>
+      <c r="JY10" s="30" t="inlineStr"/>
+      <c r="JZ10" s="30" t="inlineStr"/>
+      <c r="KA10" s="30" t="inlineStr"/>
+      <c r="KB10" s="30" t="inlineStr"/>
+      <c r="KC10" s="30" t="inlineStr"/>
+      <c r="KD10" s="30" t="inlineStr"/>
+      <c r="KE10" s="30" t="inlineStr"/>
+      <c r="KF10" s="30" t="inlineStr"/>
     </row>
     <row r="11" ht="15.4" customHeight="1" s="3">
       <c r="A11" s="26" t="inlineStr"/>
@@ -6603,6 +8188,49 @@
       <c r="GM11" s="30" t="inlineStr"/>
       <c r="GQ11" s="30" t="inlineStr"/>
       <c r="GR11" s="30" t="inlineStr"/>
+      <c r="GS11" s="30" t="inlineStr"/>
+      <c r="GT11" s="30" t="inlineStr"/>
+      <c r="GU11" s="30" t="inlineStr"/>
+      <c r="GV11" s="30" t="inlineStr"/>
+      <c r="GW11" s="30" t="inlineStr"/>
+      <c r="GX11" s="30" t="inlineStr"/>
+      <c r="GY11" s="30" t="inlineStr"/>
+      <c r="GZ11" s="30" t="inlineStr"/>
+      <c r="HA11" s="30" t="inlineStr"/>
+      <c r="HB11" s="30" t="inlineStr"/>
+      <c r="HC11" s="30" t="inlineStr"/>
+      <c r="HD11" s="30" t="inlineStr"/>
+      <c r="HE11" s="30" t="inlineStr"/>
+      <c r="HF11" s="30" t="inlineStr"/>
+      <c r="JD11" s="30" t="inlineStr"/>
+      <c r="JE11" s="30" t="inlineStr"/>
+      <c r="JF11" s="30" t="inlineStr"/>
+      <c r="JG11" s="30" t="inlineStr"/>
+      <c r="JH11" s="30" t="inlineStr"/>
+      <c r="JI11" s="30" t="inlineStr"/>
+      <c r="JJ11" s="30" t="inlineStr"/>
+      <c r="JK11" s="30" t="inlineStr"/>
+      <c r="JL11" s="30" t="inlineStr"/>
+      <c r="JM11" s="30" t="inlineStr"/>
+      <c r="JN11" s="30" t="inlineStr"/>
+      <c r="JO11" s="30" t="inlineStr"/>
+      <c r="JP11" s="30" t="inlineStr"/>
+      <c r="JQ11" s="30" t="inlineStr"/>
+      <c r="JR11" s="30" t="inlineStr"/>
+      <c r="JS11" s="30" t="inlineStr"/>
+      <c r="JT11" s="30" t="inlineStr"/>
+      <c r="JU11" s="30" t="inlineStr"/>
+      <c r="JV11" s="30" t="inlineStr"/>
+      <c r="JW11" s="30" t="inlineStr"/>
+      <c r="JX11" s="30" t="inlineStr"/>
+      <c r="JY11" s="30" t="inlineStr"/>
+      <c r="JZ11" s="30" t="inlineStr"/>
+      <c r="KA11" s="30" t="inlineStr"/>
+      <c r="KB11" s="30" t="inlineStr"/>
+      <c r="KC11" s="30" t="inlineStr"/>
+      <c r="KD11" s="30" t="inlineStr"/>
+      <c r="KE11" s="30" t="inlineStr"/>
+      <c r="KF11" s="30" t="inlineStr"/>
     </row>
     <row r="12" ht="15.4" customHeight="1" s="3">
       <c r="A12" s="25" t="inlineStr">
@@ -7547,6 +9175,221 @@
           <t>339</t>
         </is>
       </c>
+      <c r="GS12" s="29" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="GT12" s="29" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="GU12" s="29" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="GV12" s="29" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="GW12" s="29" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="GX12" s="29" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="GY12" s="29" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="GZ12" s="29" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="HA12" s="29" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="HB12" s="29" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="HC12" s="29" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="HD12" s="29" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="HE12" s="29" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="HF12" s="30" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="JD12" s="30" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="JE12" s="29" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="JF12" s="34" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="JG12" s="29" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="JH12" s="29" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="JI12" s="29" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="JJ12" s="29" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="JK12" s="34" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="JL12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="JM12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="JN12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="JO12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="JP12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="JQ12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="JR12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="JS12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="JT12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="JU12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="JV12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="JW12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="JX12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="JY12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="JZ12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="KA12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="KB12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="KC12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="KD12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="KE12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="KF12" s="29" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.4" customHeight="1" s="3">
       <c r="A13" s="25" t="inlineStr">
@@ -8487,6 +10330,221 @@
         </is>
       </c>
       <c r="GR13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="GS13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="GT13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="GU13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="GV13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="GW13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="GX13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="GY13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="GZ13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="HA13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="HB13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="HC13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="HD13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="HE13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="HF13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="JD13" s="35" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="JE13" s="28" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="JF13" s="28" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="JG13" s="28" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="JH13" s="28" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="JI13" s="28" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="JJ13" s="28" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="JK13" s="28" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="JL13" s="28" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="JM13" s="28" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="JN13" s="28" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="JO13" s="33" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="JP13" s="28" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="JQ13" s="28" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="JR13" s="28" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="JS13" s="28" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="JT13" s="28" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="JU13" s="28" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="JV13" s="28" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="JW13" s="28" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="JX13" s="28" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="JY13" s="30" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="JZ13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="KA13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="KB13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="KC13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="KD13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="KE13" s="29" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="KF13" s="29" t="inlineStr">
         <is>
           <t>499</t>
         </is>
@@ -8689,6 +10747,49 @@
       <c r="GM14" s="30" t="inlineStr"/>
       <c r="GQ14" s="30" t="inlineStr"/>
       <c r="GR14" s="30" t="inlineStr"/>
+      <c r="GS14" s="30" t="inlineStr"/>
+      <c r="GT14" s="30" t="inlineStr"/>
+      <c r="GU14" s="30" t="inlineStr"/>
+      <c r="GV14" s="30" t="inlineStr"/>
+      <c r="GW14" s="30" t="inlineStr"/>
+      <c r="GX14" s="30" t="inlineStr"/>
+      <c r="GY14" s="30" t="inlineStr"/>
+      <c r="GZ14" s="30" t="inlineStr"/>
+      <c r="HA14" s="30" t="inlineStr"/>
+      <c r="HB14" s="30" t="inlineStr"/>
+      <c r="HC14" s="30" t="inlineStr"/>
+      <c r="HD14" s="30" t="inlineStr"/>
+      <c r="HE14" s="30" t="inlineStr"/>
+      <c r="HF14" s="30" t="inlineStr"/>
+      <c r="JD14" s="30" t="inlineStr"/>
+      <c r="JE14" s="30" t="inlineStr"/>
+      <c r="JF14" s="30" t="inlineStr"/>
+      <c r="JG14" s="30" t="inlineStr"/>
+      <c r="JH14" s="30" t="inlineStr"/>
+      <c r="JI14" s="30" t="inlineStr"/>
+      <c r="JJ14" s="30" t="inlineStr"/>
+      <c r="JK14" s="30" t="inlineStr"/>
+      <c r="JL14" s="30" t="inlineStr"/>
+      <c r="JM14" s="30" t="inlineStr"/>
+      <c r="JN14" s="30" t="inlineStr"/>
+      <c r="JO14" s="30" t="inlineStr"/>
+      <c r="JP14" s="30" t="inlineStr"/>
+      <c r="JQ14" s="30" t="inlineStr"/>
+      <c r="JR14" s="30" t="inlineStr"/>
+      <c r="JS14" s="30" t="inlineStr"/>
+      <c r="JT14" s="30" t="inlineStr"/>
+      <c r="JU14" s="30" t="inlineStr"/>
+      <c r="JV14" s="30" t="inlineStr"/>
+      <c r="JW14" s="30" t="inlineStr"/>
+      <c r="JX14" s="30" t="inlineStr"/>
+      <c r="JY14" s="30" t="inlineStr"/>
+      <c r="JZ14" s="30" t="inlineStr"/>
+      <c r="KA14" s="30" t="inlineStr"/>
+      <c r="KB14" s="30" t="inlineStr"/>
+      <c r="KC14" s="30" t="inlineStr"/>
+      <c r="KD14" s="30" t="inlineStr"/>
+      <c r="KE14" s="30" t="inlineStr"/>
+      <c r="KF14" s="30" t="inlineStr"/>
     </row>
     <row r="15" ht="15.4" customHeight="1" s="3">
       <c r="A15" s="25" t="inlineStr">
@@ -8699,7 +10800,7 @@
       <c r="B15" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Zasilacz SILENTIUMPC Supremo M2 Gold V2 550W
+Zasilacz SILENTIUMPC Supremo M2 V2 550W Gold
 </t>
         </is>
       </c>
@@ -9633,6 +11734,221 @@
           <t>309</t>
         </is>
       </c>
+      <c r="GS15" s="29" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="GT15" s="29" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="GU15" s="29" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="GV15" s="29" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="GW15" s="29" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="GX15" s="29" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="GY15" s="29" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="GZ15" s="29" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="HA15" s="29" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="HB15" s="29" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="HC15" s="29" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="HD15" s="29" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="HE15" s="29" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="HF15" s="29" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="JD15" s="30" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JE15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JF15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JG15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JH15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JI15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JJ15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JK15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JL15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JM15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JN15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JO15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JP15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JQ15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JR15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JS15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JT15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JU15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JV15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JW15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JX15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JY15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JZ15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="KA15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="KB15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="KC15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="KD15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="KE15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="KF15" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.4" customHeight="1" s="3">
       <c r="A16" s="25" t="inlineStr">
@@ -9643,7 +11959,7 @@
       <c r="B16" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Zasilacz SILENTIUMPC Supremo FM2 Gold 650W
+Zasilacz SILENTIUMPC Supremo FM2 650W Gold
 </t>
         </is>
       </c>
@@ -10577,6 +12893,221 @@
           <t>399</t>
         </is>
       </c>
+      <c r="GS16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="GT16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="GU16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="GV16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="GW16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="GX16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="GY16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="GZ16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="HA16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="HB16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="HC16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="HD16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="HE16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="HF16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JD16" s="30" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JE16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JF16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JG16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JH16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JI16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JJ16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JK16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JL16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JM16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JN16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JO16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JP16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JQ16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JR16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JS16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JT16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JU16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JV16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JW16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JX16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JY16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JZ16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="KA16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="KB16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="KC16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="KD16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="KE16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="KF16" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.4" customHeight="1" s="3">
       <c r="A17" s="25" t="inlineStr">
@@ -11521,6 +14052,221 @@
           <t>155</t>
         </is>
       </c>
+      <c r="GS17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="GT17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="GU17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="GV17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="GW17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="GX17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="GY17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="GZ17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="HA17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="HB17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="HC17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="HD17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="HE17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="HF17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JD17" s="30" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JF17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JG17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JH17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JI17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JJ17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JK17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JL17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JM17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JN17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JO17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JP17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JQ17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JR17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JS17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JT17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JU17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JV17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JW17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JX17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JY17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JZ17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="KA17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="KB17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="KC17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="KD17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="KE17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="KF17" s="29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.4" customHeight="1" s="3">
       <c r="A18" s="25" t="inlineStr">
@@ -12461,6 +15207,221 @@
         </is>
       </c>
       <c r="GR18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="GS18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="GT18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="GU18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="GV18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="GW18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="GX18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="GY18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="GZ18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="HA18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="HB18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="HC18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="HD18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="HE18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="HF18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JD18" s="30" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JE18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JF18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JG18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JH18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JI18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JJ18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JK18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JL18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JM18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JN18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JO18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JP18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JQ18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JR18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JS18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JT18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JU18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JV18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JW18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JX18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JY18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="JZ18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="KA18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="KB18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="KC18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="KD18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="KE18" s="29" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="KF18" s="29" t="inlineStr">
         <is>
           <t>179</t>
         </is>
@@ -12663,6 +15624,49 @@
       <c r="GM19" s="30" t="inlineStr"/>
       <c r="GQ19" s="30" t="inlineStr"/>
       <c r="GR19" s="30" t="inlineStr"/>
+      <c r="GS19" s="30" t="inlineStr"/>
+      <c r="GT19" s="30" t="inlineStr"/>
+      <c r="GU19" s="30" t="inlineStr"/>
+      <c r="GV19" s="30" t="inlineStr"/>
+      <c r="GW19" s="30" t="inlineStr"/>
+      <c r="GX19" s="30" t="inlineStr"/>
+      <c r="GY19" s="30" t="inlineStr"/>
+      <c r="GZ19" s="30" t="inlineStr"/>
+      <c r="HA19" s="30" t="inlineStr"/>
+      <c r="HB19" s="30" t="inlineStr"/>
+      <c r="HC19" s="30" t="inlineStr"/>
+      <c r="HD19" s="30" t="inlineStr"/>
+      <c r="HE19" s="30" t="inlineStr"/>
+      <c r="HF19" s="30" t="inlineStr"/>
+      <c r="JD19" s="30" t="inlineStr"/>
+      <c r="JE19" s="30" t="inlineStr"/>
+      <c r="JF19" s="30" t="inlineStr"/>
+      <c r="JG19" s="30" t="inlineStr"/>
+      <c r="JH19" s="30" t="inlineStr"/>
+      <c r="JI19" s="30" t="inlineStr"/>
+      <c r="JJ19" s="30" t="inlineStr"/>
+      <c r="JK19" s="30" t="inlineStr"/>
+      <c r="JL19" s="30" t="inlineStr"/>
+      <c r="JM19" s="30" t="inlineStr"/>
+      <c r="JN19" s="30" t="inlineStr"/>
+      <c r="JO19" s="30" t="inlineStr"/>
+      <c r="JP19" s="30" t="inlineStr"/>
+      <c r="JQ19" s="30" t="inlineStr"/>
+      <c r="JR19" s="30" t="inlineStr"/>
+      <c r="JS19" s="30" t="inlineStr"/>
+      <c r="JT19" s="30" t="inlineStr"/>
+      <c r="JU19" s="30" t="inlineStr"/>
+      <c r="JV19" s="30" t="inlineStr"/>
+      <c r="JW19" s="30" t="inlineStr"/>
+      <c r="JX19" s="30" t="inlineStr"/>
+      <c r="JY19" s="30" t="inlineStr"/>
+      <c r="JZ19" s="30" t="inlineStr"/>
+      <c r="KA19" s="30" t="inlineStr"/>
+      <c r="KB19" s="30" t="inlineStr"/>
+      <c r="KC19" s="30" t="inlineStr"/>
+      <c r="KD19" s="30" t="inlineStr"/>
+      <c r="KE19" s="30" t="inlineStr"/>
+      <c r="KF19" s="30" t="inlineStr"/>
     </row>
     <row r="20" ht="15.4" customHeight="1" s="3">
       <c r="A20" s="25" t="inlineStr">
@@ -13607,6 +16611,221 @@
           <t>459</t>
         </is>
       </c>
+      <c r="GS20" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="GT20" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="GU20" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="GV20" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="GW20" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="GX20" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="GY20" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="GZ20" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="HA20" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="HB20" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="HC20" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="HD20" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="HE20" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="HF20" s="29" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="JD20" s="30" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="JE20" s="29" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="JF20" s="29" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="JG20" s="29" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="JH20" s="29" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="JI20" s="29" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="JJ20" s="29" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="JK20" s="29" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="JL20" s="29" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="JM20" s="29" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="JN20" s="29" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="JO20" s="29" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="JP20" s="29" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="JQ20" s="34" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="JR20" s="29" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="JS20" s="34" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="JT20" s="29" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="JU20" s="29" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="JV20" s="29" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="JW20" s="29" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="JX20" s="29" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="JY20" s="29" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="JZ20" s="29" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="KA20" s="29" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="KB20" s="29" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="KC20" s="29" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="KD20" s="29" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="KE20" s="29" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="KF20" s="29" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.4" customHeight="1" s="3">
       <c r="A21" s="25" t="inlineStr">
@@ -14551,6 +17770,221 @@
           <t>299</t>
         </is>
       </c>
+      <c r="GS21" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="GT21" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="GU21" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="GV21" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="GW21" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="GX21" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="GY21" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="GZ21" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="HA21" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="HB21" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="HC21" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="HD21" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="HE21" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="HF21" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JD21" s="30" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JE21" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JF21" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JG21" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JH21" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JI21" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JJ21" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JK21" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JL21" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JM21" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JN21" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JO21" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JP21" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JQ21" s="34" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JR21" s="29" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="JS21" s="34" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="JT21" s="29" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="JU21" s="29" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="JV21" s="29" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="JW21" s="29" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="JX21" s="29" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="JY21" s="29" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="JZ21" s="29" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="KA21" s="29" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="KB21" s="29" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="KC21" s="29" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="KD21" s="29" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="KE21" s="29" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="KF21" s="29" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.4" customHeight="1" s="3">
       <c r="A22" s="25" t="inlineStr">
@@ -15495,6 +18929,221 @@
           <t>249</t>
         </is>
       </c>
+      <c r="GS22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="GT22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="GU22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="GV22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="GW22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="GX22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="GY22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="GZ22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="HA22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="HB22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="HC22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="HD22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="HE22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="HF22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JD22" s="30" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JE22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JF22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JG22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JH22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JI22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JJ22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JK22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JL22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JM22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JN22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JO22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JP22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JQ22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JR22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JS22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JT22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JU22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JV22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JW22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JX22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JY22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JZ22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="KA22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="KB22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="KC22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="KD22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="KE22" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="KF22" s="34" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.4" customHeight="1" s="3">
       <c r="A23" s="25" t="inlineStr">
@@ -16439,6 +20088,221 @@
           <t>259</t>
         </is>
       </c>
+      <c r="GS23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="GT23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="GU23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="GV23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="GW23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="GX23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="GY23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="GZ23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="HA23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="HB23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="HC23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="HD23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="HE23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="HF23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="JD23" s="30" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="JE23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="JF23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="JG23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="JH23" s="29" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="JI23" s="34" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JJ23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JK23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JL23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JM23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JN23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JO23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JP23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JQ23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JR23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JS23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JT23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JU23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JV23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JW23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JX23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JY23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="JZ23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="KA23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="KB23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="KC23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="KD23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="KE23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="KF23" s="29" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="15.4" customHeight="1" s="3">
       <c r="A24" s="25" t="inlineStr">
@@ -17383,6 +21247,221 @@
           <t>329</t>
         </is>
       </c>
+      <c r="GS24" s="29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="GT24" s="29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="GU24" s="29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="GV24" s="29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="GW24" s="29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="GX24" s="29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="GY24" s="29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="GZ24" s="29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="HA24" s="29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="HB24" s="29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="HC24" s="29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="HD24" s="29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="HE24" s="29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="HF24" s="29" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="JD24" s="30" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="JE24" s="29" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="JF24" s="29" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="JG24" s="29" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="JH24" s="29" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="JI24" s="29" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="JJ24" s="29" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="JK24" s="29" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="JL24" s="29" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="JM24" s="29" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="JN24" s="29" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="JO24" s="29" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="JP24" s="29" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="JQ24" s="34" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="JR24" s="29" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="JS24" s="29" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="JT24" s="29" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="JU24" s="29" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="JV24" s="29" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="JW24" s="29" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="JX24" s="29" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="JY24" s="29" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="JZ24" s="29" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="KA24" s="29" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="KB24" s="29" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="KC24" s="29" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="KD24" s="29" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="KE24" s="29" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="KF24" s="29" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.4" customHeight="1" s="3">
       <c r="A25" s="25" t="inlineStr">
@@ -18323,6 +22402,221 @@
         </is>
       </c>
       <c r="GR25" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="GS25" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="GT25" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="GU25" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="GV25" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="GW25" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="GX25" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="GY25" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="GZ25" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="HA25" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="HB25" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="HC25" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="HD25" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="HE25" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="HF25" s="29" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="JD25" s="30" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="JE25" s="29" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="JF25" s="29" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="JG25" s="29" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="JH25" s="29" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="JI25" s="29" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="JJ25" s="34" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JK25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JL25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JM25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JN25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JO25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JP25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JQ25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JR25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JS25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JT25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JU25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JV25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JW25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JX25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JY25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="JZ25" s="29" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="KA25" s="30" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="KB25" s="29" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="KC25" s="29" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="KD25" s="29" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="KE25" s="29" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="KF25" s="30" t="inlineStr">
         <is>
           <t>249</t>
         </is>
@@ -18525,6 +22819,49 @@
       <c r="GM26" s="30" t="inlineStr"/>
       <c r="GQ26" s="30" t="inlineStr"/>
       <c r="GR26" s="30" t="inlineStr"/>
+      <c r="GS26" s="30" t="inlineStr"/>
+      <c r="GT26" s="30" t="inlineStr"/>
+      <c r="GU26" s="30" t="inlineStr"/>
+      <c r="GV26" s="30" t="inlineStr"/>
+      <c r="GW26" s="30" t="inlineStr"/>
+      <c r="GX26" s="30" t="inlineStr"/>
+      <c r="GY26" s="30" t="inlineStr"/>
+      <c r="GZ26" s="30" t="inlineStr"/>
+      <c r="HA26" s="30" t="inlineStr"/>
+      <c r="HB26" s="30" t="inlineStr"/>
+      <c r="HC26" s="30" t="inlineStr"/>
+      <c r="HD26" s="30" t="inlineStr"/>
+      <c r="HE26" s="30" t="inlineStr"/>
+      <c r="HF26" s="30" t="inlineStr"/>
+      <c r="JD26" s="30" t="inlineStr"/>
+      <c r="JE26" s="30" t="inlineStr"/>
+      <c r="JF26" s="30" t="inlineStr"/>
+      <c r="JG26" s="30" t="inlineStr"/>
+      <c r="JH26" s="30" t="inlineStr"/>
+      <c r="JI26" s="30" t="inlineStr"/>
+      <c r="JJ26" s="30" t="inlineStr"/>
+      <c r="JK26" s="30" t="inlineStr"/>
+      <c r="JL26" s="30" t="inlineStr"/>
+      <c r="JM26" s="30" t="inlineStr"/>
+      <c r="JN26" s="30" t="inlineStr"/>
+      <c r="JO26" s="30" t="inlineStr"/>
+      <c r="JP26" s="30" t="inlineStr"/>
+      <c r="JQ26" s="30" t="inlineStr"/>
+      <c r="JR26" s="30" t="inlineStr"/>
+      <c r="JS26" s="30" t="inlineStr"/>
+      <c r="JT26" s="30" t="inlineStr"/>
+      <c r="JU26" s="30" t="inlineStr"/>
+      <c r="JV26" s="30" t="inlineStr"/>
+      <c r="JW26" s="30" t="inlineStr"/>
+      <c r="JX26" s="30" t="inlineStr"/>
+      <c r="JY26" s="30" t="inlineStr"/>
+      <c r="JZ26" s="30" t="inlineStr"/>
+      <c r="KA26" s="30" t="inlineStr"/>
+      <c r="KB26" s="30" t="inlineStr"/>
+      <c r="KC26" s="30" t="inlineStr"/>
+      <c r="KD26" s="30" t="inlineStr"/>
+      <c r="KE26" s="30" t="inlineStr"/>
+      <c r="KF26" s="30" t="inlineStr"/>
     </row>
     <row r="27" ht="15.4" customHeight="1" s="3">
       <c r="A27" s="25" t="inlineStr">
@@ -18535,12 +22872,12 @@
       <c r="B27" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Monitor AOC AG241QX
+Monitor AOC AGON AG241QX 24" 2560x1440px 144Hz 1 ms
 </t>
         </is>
       </c>
-      <c r="C27" s="27" t="b">
-        <v>1</v>
+      <c r="C27" s="28" t="b">
+        <v>0</v>
       </c>
       <c r="D27" s="28" t="b">
         <v>0</v>
@@ -19467,6 +23804,221 @@
       <c r="GR27" s="29" t="inlineStr">
         <is>
           <t>1549</t>
+        </is>
+      </c>
+      <c r="GS27" s="29" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="GT27" s="29" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="GU27" s="29" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="GV27" s="29" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="GW27" s="29" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="GX27" s="29" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="GY27" s="29" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="GZ27" s="29" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="HA27" s="29" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="HB27" s="29" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="HC27" s="29" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="HD27" s="29" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="HE27" s="29" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="HF27" s="29" t="inlineStr">
+        <is>
+          <t>1549</t>
+        </is>
+      </c>
+      <c r="JD27" s="35" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JE27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JF27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JG27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JH27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JI27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JJ27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JK27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JL27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JM27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JN27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JO27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JP27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JQ27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JR27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JS27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JT27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JU27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JV27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JW27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JX27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JY27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="JZ27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="KA27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="KB27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="KC27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="KD27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="KE27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="KF27" s="28" t="inlineStr">
+        <is>
+          <t>1799</t>
         </is>
       </c>
     </row>
@@ -19505,6 +24057,49 @@
       <c r="GM28" s="30" t="inlineStr"/>
       <c r="GQ28" s="30" t="inlineStr"/>
       <c r="GR28" s="30" t="inlineStr"/>
+      <c r="GS28" s="30" t="inlineStr"/>
+      <c r="GT28" s="30" t="inlineStr"/>
+      <c r="GU28" s="30" t="inlineStr"/>
+      <c r="GV28" s="30" t="inlineStr"/>
+      <c r="GW28" s="30" t="inlineStr"/>
+      <c r="GX28" s="30" t="inlineStr"/>
+      <c r="GY28" s="30" t="inlineStr"/>
+      <c r="GZ28" s="30" t="inlineStr"/>
+      <c r="HA28" s="30" t="inlineStr"/>
+      <c r="HB28" s="30" t="inlineStr"/>
+      <c r="HC28" s="30" t="inlineStr"/>
+      <c r="HD28" s="30" t="inlineStr"/>
+      <c r="HE28" s="30" t="inlineStr"/>
+      <c r="HF28" s="30" t="inlineStr"/>
+      <c r="JD28" s="30" t="inlineStr"/>
+      <c r="JE28" s="30" t="inlineStr"/>
+      <c r="JF28" s="30" t="inlineStr"/>
+      <c r="JG28" s="30" t="inlineStr"/>
+      <c r="JH28" s="30" t="inlineStr"/>
+      <c r="JI28" s="30" t="inlineStr"/>
+      <c r="JJ28" s="30" t="inlineStr"/>
+      <c r="JK28" s="30" t="inlineStr"/>
+      <c r="JL28" s="30" t="inlineStr"/>
+      <c r="JM28" s="30" t="inlineStr"/>
+      <c r="JN28" s="30" t="inlineStr"/>
+      <c r="JO28" s="30" t="inlineStr"/>
+      <c r="JP28" s="30" t="inlineStr"/>
+      <c r="JQ28" s="30" t="inlineStr"/>
+      <c r="JR28" s="30" t="inlineStr"/>
+      <c r="JS28" s="30" t="inlineStr"/>
+      <c r="JT28" s="30" t="inlineStr"/>
+      <c r="JU28" s="30" t="inlineStr"/>
+      <c r="JV28" s="30" t="inlineStr"/>
+      <c r="JW28" s="30" t="inlineStr"/>
+      <c r="JX28" s="30" t="inlineStr"/>
+      <c r="JY28" s="30" t="inlineStr"/>
+      <c r="JZ28" s="30" t="inlineStr"/>
+      <c r="KA28" s="30" t="inlineStr"/>
+      <c r="KB28" s="30" t="inlineStr"/>
+      <c r="KC28" s="30" t="inlineStr"/>
+      <c r="KD28" s="30" t="inlineStr"/>
+      <c r="KE28" s="30" t="inlineStr"/>
+      <c r="KF28" s="30" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="29" t="inlineStr">
@@ -19675,6 +24270,221 @@
           <t>199</t>
         </is>
       </c>
+      <c r="GS29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="GT29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="GU29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="GV29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="GW29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="GX29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="GY29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="GZ29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="HA29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="HB29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="HC29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="HD29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="HE29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="HF29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JD29" s="30" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JE29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JF29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JG29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JH29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JI29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JJ29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JK29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JL29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JM29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JN29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JO29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JP29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JQ29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JR29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JS29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JT29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JU29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JV29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JW29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JX29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JY29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="JZ29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="KA29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="KB29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="KC29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="KD29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="KE29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="KF29" s="29" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="29" t="inlineStr">
@@ -19845,6 +24655,221 @@
           <t>889</t>
         </is>
       </c>
+      <c r="GS30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="GT30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="GU30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="GV30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="GW30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="GX30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="GY30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="GZ30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="HA30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="HB30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="HC30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="HD30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="HE30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="HF30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="JD30" s="30" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="JE30" s="34" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="JF30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="JG30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="JH30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="JI30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="JJ30" s="29" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="JK30" s="30" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
+      </c>
+      <c r="JL30" s="30" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="JM30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="JN30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="JO30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="JP30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="JQ30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="JR30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="JS30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="JT30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="JU30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="JV30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="JW30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="JX30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="JY30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="JZ30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="KA30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="KB30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="KC30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="KD30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="KE30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="KF30" s="29" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="29" t="inlineStr">
@@ -19862,8 +24887,8 @@
       <c r="C31" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="D31" s="28" t="b">
-        <v>0</v>
+      <c r="D31" s="27" t="b">
+        <v>1</v>
       </c>
       <c r="FL31" s="30" t="inlineStr">
         <is>
@@ -20013,6 +25038,221 @@
       <c r="GR31" s="29" t="inlineStr">
         <is>
           <t>419</t>
+        </is>
+      </c>
+      <c r="GS31" s="29" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="GT31" s="29" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="GU31" s="29" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="GV31" s="29" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="GW31" s="29" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="GX31" s="29" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="GY31" s="29" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="GZ31" s="29" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="HA31" s="29" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="HB31" s="29" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="HC31" s="29" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="HD31" s="29" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="HE31" s="29" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="HF31" s="29" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="JD31" s="30" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JE31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JF31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JG31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JH31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JI31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JJ31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JK31" s="34" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="JL31" s="30" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JM31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JN31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JO31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JP31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JQ31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JR31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JS31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JT31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JU31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JV31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JW31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JX31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JY31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="JZ31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="KA31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="KB31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="KC31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="KD31" s="29" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="KE31" s="34" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="KF31" s="30" t="inlineStr">
+        <is>
+          <t>408</t>
         </is>
       </c>
     </row>
@@ -20183,6 +25423,221 @@
       <c r="GR32" s="34" t="inlineStr">
         <is>
           <t>449</t>
+        </is>
+      </c>
+      <c r="GS32" s="29" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="GT32" s="29" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="GU32" s="29" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="GV32" s="29" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="GW32" s="29" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="GX32" s="29" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="GY32" s="29" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="GZ32" s="29" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="HA32" s="34" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="HB32" s="29" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="HC32" s="30" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="HD32" s="29" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="HE32" s="34" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="HF32" s="29" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="JD32" s="30" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JE32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JF32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JG32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JH32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JI32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JJ32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JK32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JL32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JM32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JN32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JO32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JP32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JQ32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JR32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JS32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JT32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JU32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JV32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JW32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JX32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JY32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="JZ32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="KA32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="KB32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="KC32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="KD32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="KE32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="KF32" s="29" t="inlineStr">
+        <is>
+          <t>439</t>
         </is>
       </c>
     </row>
